--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,15 +79,6 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>sCs</t>
-  </si>
-  <si>
-    <t>Dhh</t>
-  </si>
-  <si>
-    <t>Ptch2</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -98,6 +89,15 @@
   </si>
   <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
+    <t>Dhh</t>
+  </si>
+  <si>
+    <t>Ptch2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.03876905234744</v>
+        <v>2.364607666666667</v>
       </c>
       <c r="H2">
-        <v>1.03876905234744</v>
+        <v>7.093823</v>
       </c>
       <c r="I2">
-        <v>0.5615219582945199</v>
+        <v>0.5706817983441448</v>
       </c>
       <c r="J2">
-        <v>0.5615219582945199</v>
+        <v>0.5706817983441448</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.904418253761033</v>
+        <v>1.277057</v>
       </c>
       <c r="N2">
-        <v>0.904418253761033</v>
+        <v>3.831171</v>
       </c>
       <c r="O2">
-        <v>0.09547918960385907</v>
+        <v>0.1230102392543504</v>
       </c>
       <c r="P2">
-        <v>0.09547918960385907</v>
+        <v>0.1230102392543504</v>
       </c>
       <c r="Q2">
-        <v>0.9394816923850747</v>
+        <v>3.019738772970334</v>
       </c>
       <c r="R2">
-        <v>0.9394816923850747</v>
+        <v>27.177648956733</v>
       </c>
       <c r="S2">
-        <v>0.05361366152273271</v>
+        <v>0.07019970455241623</v>
       </c>
       <c r="T2">
-        <v>0.05361366152273271</v>
+        <v>0.0701997045524162</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.03876905234744</v>
+        <v>2.364607666666667</v>
       </c>
       <c r="H3">
-        <v>1.03876905234744</v>
+        <v>7.093823</v>
       </c>
       <c r="I3">
-        <v>0.5615219582945199</v>
+        <v>0.5706817983441448</v>
       </c>
       <c r="J3">
-        <v>0.5615219582945199</v>
+        <v>0.5706817983441448</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.48079325226104</v>
+        <v>1.507958</v>
       </c>
       <c r="N3">
-        <v>1.48079325226104</v>
+        <v>4.523874</v>
       </c>
       <c r="O3">
-        <v>0.1563269417758832</v>
+        <v>0.1452513665134068</v>
       </c>
       <c r="P3">
-        <v>0.1563269417758832</v>
+        <v>0.1452513665134068</v>
       </c>
       <c r="Q3">
-        <v>1.538202203373684</v>
+        <v>3.565729047811334</v>
       </c>
       <c r="R3">
-        <v>1.538202203373684</v>
+        <v>32.091561430302</v>
       </c>
       <c r="S3">
-        <v>0.08778101048018731</v>
+        <v>0.08289231105381549</v>
       </c>
       <c r="T3">
-        <v>0.08778101048018731</v>
+        <v>0.08289231105381548</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.03876905234744</v>
+        <v>2.364607666666667</v>
       </c>
       <c r="H4">
-        <v>1.03876905234744</v>
+        <v>7.093823</v>
       </c>
       <c r="I4">
-        <v>0.5615219582945199</v>
+        <v>0.5706817983441448</v>
       </c>
       <c r="J4">
-        <v>0.5615219582945199</v>
+        <v>0.5706817983441448</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.832490150937107</v>
+        <v>0.9821500000000002</v>
       </c>
       <c r="N4">
-        <v>0.832490150937107</v>
+        <v>2.94645</v>
       </c>
       <c r="O4">
-        <v>0.08788575930895694</v>
+        <v>0.0946038481318064</v>
       </c>
       <c r="P4">
-        <v>0.08788575930895694</v>
+        <v>0.09460384813180638</v>
       </c>
       <c r="Q4">
-        <v>0.8647650051775159</v>
+        <v>2.322399419816667</v>
       </c>
       <c r="R4">
-        <v>0.8647650051775159</v>
+        <v>20.90159477835</v>
       </c>
       <c r="S4">
-        <v>0.04934978367336633</v>
+        <v>0.05398869418213564</v>
       </c>
       <c r="T4">
-        <v>0.04934978367336633</v>
+        <v>0.05398869418213562</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.03876905234744</v>
+        <v>2.364607666666667</v>
       </c>
       <c r="H5">
-        <v>1.03876905234744</v>
+        <v>7.093823</v>
       </c>
       <c r="I5">
-        <v>0.5615219582945199</v>
+        <v>0.5706817983441448</v>
       </c>
       <c r="J5">
-        <v>0.5615219582945199</v>
+        <v>0.5706817983441448</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.05434557028265</v>
+        <v>1.238964666666667</v>
       </c>
       <c r="N5">
-        <v>1.05434557028265</v>
+        <v>3.716894</v>
       </c>
       <c r="O5">
-        <v>0.1113069757209973</v>
+        <v>0.119341063143112</v>
       </c>
       <c r="P5">
-        <v>0.1113069757209973</v>
+        <v>0.119341063143112</v>
       </c>
       <c r="Q5">
-        <v>1.09522154888923</v>
+        <v>2.929665349529111</v>
       </c>
       <c r="R5">
-        <v>1.09522154888923</v>
+        <v>26.366988145762</v>
       </c>
       <c r="S5">
-        <v>0.06250131097869498</v>
+        <v>0.06810577253081329</v>
       </c>
       <c r="T5">
-        <v>0.06250131097869498</v>
+        <v>0.06810577253081329</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.03876905234744</v>
+        <v>2.364607666666667</v>
       </c>
       <c r="H6">
-        <v>1.03876905234744</v>
+        <v>7.093823</v>
       </c>
       <c r="I6">
-        <v>0.5615219582945199</v>
+        <v>0.5706817983441448</v>
       </c>
       <c r="J6">
-        <v>0.5615219582945199</v>
+        <v>0.5706817983441448</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.30064388162745</v>
+        <v>4.427111</v>
       </c>
       <c r="N6">
-        <v>4.30064388162745</v>
+        <v>13.281333</v>
       </c>
       <c r="O6">
-        <v>0.4540178074524787</v>
+        <v>0.4264335760389447</v>
       </c>
       <c r="P6">
-        <v>0.4540178074524787</v>
+        <v>0.4264335760389446</v>
       </c>
       <c r="Q6">
-        <v>4.467375769401962</v>
+        <v>10.46838061178433</v>
       </c>
       <c r="R6">
-        <v>4.467375769401962</v>
+        <v>94.21542550605899</v>
       </c>
       <c r="S6">
-        <v>0.2549409683413001</v>
+        <v>0.2433578800482296</v>
       </c>
       <c r="T6">
-        <v>0.2549409683413001</v>
+        <v>0.2433578800482295</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.03876905234744</v>
+        <v>2.364607666666667</v>
       </c>
       <c r="H7">
-        <v>1.03876905234744</v>
+        <v>7.093823</v>
       </c>
       <c r="I7">
-        <v>0.5615219582945199</v>
+        <v>0.5706817983441448</v>
       </c>
       <c r="J7">
-        <v>0.5615219582945199</v>
+        <v>0.5706817983441448</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8997212305467051</v>
+        <v>0.9484723333333335</v>
       </c>
       <c r="N7">
-        <v>0.8997212305467051</v>
+        <v>2.845417</v>
       </c>
       <c r="O7">
-        <v>0.09498332613782486</v>
+        <v>0.09135990691837981</v>
       </c>
       <c r="P7">
-        <v>0.09498332613782486</v>
+        <v>0.09135990691837978</v>
       </c>
       <c r="Q7">
-        <v>0.9346025700318734</v>
+        <v>2.242764951021222</v>
       </c>
       <c r="R7">
-        <v>0.9346025700318734</v>
+        <v>20.184884559191</v>
       </c>
       <c r="S7">
-        <v>0.05333522329823847</v>
+        <v>0.05213743597673466</v>
       </c>
       <c r="T7">
-        <v>0.05333522329823847</v>
+        <v>0.05213743597673465</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.811148011452588</v>
+        <v>0.4412883333333333</v>
       </c>
       <c r="H8">
-        <v>0.811148011452588</v>
+        <v>1.323865</v>
       </c>
       <c r="I8">
-        <v>0.4384780417054801</v>
+        <v>0.1065019043983577</v>
       </c>
       <c r="J8">
-        <v>0.4384780417054801</v>
+        <v>0.1065019043983578</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.904418253761033</v>
+        <v>1.277057</v>
       </c>
       <c r="N8">
-        <v>0.904418253761033</v>
+        <v>3.831171</v>
       </c>
       <c r="O8">
-        <v>0.09547918960385907</v>
+        <v>0.1230102392543504</v>
       </c>
       <c r="P8">
-        <v>0.09547918960385907</v>
+        <v>0.1230102392543504</v>
       </c>
       <c r="Q8">
-        <v>0.7336170680596841</v>
+        <v>0.5635503551016667</v>
       </c>
       <c r="R8">
-        <v>0.7336170680596841</v>
+        <v>5.071953195915</v>
       </c>
       <c r="S8">
-        <v>0.04186552808112635</v>
+        <v>0.01310082474108594</v>
       </c>
       <c r="T8">
-        <v>0.04186552808112635</v>
+        <v>0.01310082474108594</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.811148011452588</v>
+        <v>0.4412883333333333</v>
       </c>
       <c r="H9">
-        <v>0.811148011452588</v>
+        <v>1.323865</v>
       </c>
       <c r="I9">
-        <v>0.4384780417054801</v>
+        <v>0.1065019043983577</v>
       </c>
       <c r="J9">
-        <v>0.4384780417054801</v>
+        <v>0.1065019043983578</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.48079325226104</v>
+        <v>1.507958</v>
       </c>
       <c r="N9">
-        <v>1.48079325226104</v>
+        <v>4.523874</v>
       </c>
       <c r="O9">
-        <v>0.1563269417758832</v>
+        <v>0.1452513665134068</v>
       </c>
       <c r="P9">
-        <v>0.1563269417758832</v>
+        <v>0.1452513665134068</v>
       </c>
       <c r="Q9">
-        <v>1.201142501943953</v>
+        <v>0.6654442725566667</v>
       </c>
       <c r="R9">
-        <v>1.201142501943953</v>
+        <v>5.988998453010001</v>
       </c>
       <c r="S9">
-        <v>0.06854593129569587</v>
+        <v>0.01546954715014167</v>
       </c>
       <c r="T9">
-        <v>0.06854593129569587</v>
+        <v>0.01546954715014167</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.811148011452588</v>
+        <v>0.4412883333333333</v>
       </c>
       <c r="H10">
-        <v>0.811148011452588</v>
+        <v>1.323865</v>
       </c>
       <c r="I10">
-        <v>0.4384780417054801</v>
+        <v>0.1065019043983577</v>
       </c>
       <c r="J10">
-        <v>0.4384780417054801</v>
+        <v>0.1065019043983578</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.832490150937107</v>
+        <v>0.9821500000000002</v>
       </c>
       <c r="N10">
-        <v>0.832490150937107</v>
+        <v>2.94645</v>
       </c>
       <c r="O10">
-        <v>0.08788575930895694</v>
+        <v>0.0946038481318064</v>
       </c>
       <c r="P10">
-        <v>0.08788575930895694</v>
+        <v>0.09460384813180638</v>
       </c>
       <c r="Q10">
-        <v>0.6752727304864992</v>
+        <v>0.4334113365833334</v>
       </c>
       <c r="R10">
-        <v>0.6752727304864992</v>
+        <v>3.900702029250001</v>
       </c>
       <c r="S10">
-        <v>0.03853597563559061</v>
+        <v>0.0100754899894504</v>
       </c>
       <c r="T10">
-        <v>0.03853597563559061</v>
+        <v>0.0100754899894504</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.811148011452588</v>
+        <v>0.4412883333333333</v>
       </c>
       <c r="H11">
-        <v>0.811148011452588</v>
+        <v>1.323865</v>
       </c>
       <c r="I11">
-        <v>0.4384780417054801</v>
+        <v>0.1065019043983577</v>
       </c>
       <c r="J11">
-        <v>0.4384780417054801</v>
+        <v>0.1065019043983578</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.05434557028265</v>
+        <v>1.238964666666667</v>
       </c>
       <c r="N11">
-        <v>1.05434557028265</v>
+        <v>3.716894</v>
       </c>
       <c r="O11">
-        <v>0.1113069757209973</v>
+        <v>0.119341063143112</v>
       </c>
       <c r="P11">
-        <v>0.1113069757209973</v>
+        <v>0.119341063143112</v>
       </c>
       <c r="Q11">
-        <v>0.8552303127186165</v>
+        <v>0.5467406528122223</v>
       </c>
       <c r="R11">
-        <v>0.8552303127186165</v>
+        <v>4.920665875310001</v>
       </c>
       <c r="S11">
-        <v>0.04880566474230231</v>
+        <v>0.01271005049766609</v>
       </c>
       <c r="T11">
-        <v>0.04880566474230231</v>
+        <v>0.01271005049766609</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.811148011452588</v>
+        <v>0.4412883333333333</v>
       </c>
       <c r="H12">
-        <v>0.811148011452588</v>
+        <v>1.323865</v>
       </c>
       <c r="I12">
-        <v>0.4384780417054801</v>
+        <v>0.1065019043983577</v>
       </c>
       <c r="J12">
-        <v>0.4384780417054801</v>
+        <v>0.1065019043983578</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.30064388162745</v>
+        <v>4.427111</v>
       </c>
       <c r="N12">
-        <v>4.30064388162745</v>
+        <v>13.281333</v>
       </c>
       <c r="O12">
-        <v>0.4540178074524787</v>
+        <v>0.4264335760389447</v>
       </c>
       <c r="P12">
-        <v>0.4540178074524787</v>
+        <v>0.4264335760389446</v>
       </c>
       <c r="Q12">
-        <v>3.488458732547845</v>
+        <v>1.953632434671667</v>
       </c>
       <c r="R12">
-        <v>3.488458732547845</v>
+        <v>17.582691912045</v>
       </c>
       <c r="S12">
-        <v>0.1990768391111786</v>
+        <v>0.0454159879475495</v>
       </c>
       <c r="T12">
-        <v>0.1990768391111786</v>
+        <v>0.0454159879475495</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1549 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4412883333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.323865</v>
+      </c>
+      <c r="I13">
+        <v>0.1065019043983577</v>
+      </c>
+      <c r="J13">
+        <v>0.1065019043983578</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9484723333333335</v>
+      </c>
+      <c r="N13">
+        <v>2.845417</v>
+      </c>
+      <c r="O13">
+        <v>0.09135990691837981</v>
+      </c>
+      <c r="P13">
+        <v>0.09135990691837978</v>
+      </c>
+      <c r="Q13">
+        <v>0.4185497751894445</v>
+      </c>
+      <c r="R13">
+        <v>3.766947976705</v>
+      </c>
+      <c r="S13">
+        <v>0.009730004072464148</v>
+      </c>
+      <c r="T13">
+        <v>0.009730004072464146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.06615233333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.198457</v>
+      </c>
+      <c r="I14">
+        <v>0.01596541070364794</v>
+      </c>
+      <c r="J14">
+        <v>0.01596541070364794</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.277057</v>
+      </c>
+      <c r="N14">
+        <v>3.831171</v>
+      </c>
+      <c r="O14">
+        <v>0.1230102392543504</v>
+      </c>
+      <c r="P14">
+        <v>0.1230102392543504</v>
+      </c>
+      <c r="Q14">
+        <v>0.08448030034966666</v>
+      </c>
+      <c r="R14">
+        <v>0.760322703147</v>
+      </c>
+      <c r="S14">
+        <v>0.0019639089904497</v>
+      </c>
+      <c r="T14">
+        <v>0.0019639089904497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.06615233333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.198457</v>
+      </c>
+      <c r="I15">
+        <v>0.01596541070364794</v>
+      </c>
+      <c r="J15">
+        <v>0.01596541070364794</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.507958</v>
+      </c>
+      <c r="N15">
+        <v>4.523874</v>
+      </c>
+      <c r="O15">
+        <v>0.1452513665134068</v>
+      </c>
+      <c r="P15">
+        <v>0.1452513665134068</v>
+      </c>
+      <c r="Q15">
+        <v>0.09975494026866667</v>
+      </c>
+      <c r="R15">
+        <v>0.897794462418</v>
+      </c>
+      <c r="S15">
+        <v>0.002318997721652635</v>
+      </c>
+      <c r="T15">
+        <v>0.002318997721652635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.06615233333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.198457</v>
+      </c>
+      <c r="I16">
+        <v>0.01596541070364794</v>
+      </c>
+      <c r="J16">
+        <v>0.01596541070364794</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.9821500000000002</v>
+      </c>
+      <c r="N16">
+        <v>2.94645</v>
+      </c>
+      <c r="O16">
+        <v>0.0946038481318064</v>
+      </c>
+      <c r="P16">
+        <v>0.09460384813180638</v>
+      </c>
+      <c r="Q16">
+        <v>0.06497151418333334</v>
+      </c>
+      <c r="R16">
+        <v>0.5847436276500001</v>
+      </c>
+      <c r="S16">
+        <v>0.001510389289569826</v>
+      </c>
+      <c r="T16">
+        <v>0.001510389289569826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.06615233333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.198457</v>
+      </c>
+      <c r="I17">
+        <v>0.01596541070364794</v>
+      </c>
+      <c r="J17">
+        <v>0.01596541070364794</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.238964666666667</v>
+      </c>
+      <c r="N17">
+        <v>3.716894</v>
+      </c>
+      <c r="O17">
+        <v>0.119341063143112</v>
+      </c>
+      <c r="P17">
+        <v>0.119341063143112</v>
+      </c>
+      <c r="Q17">
+        <v>0.08196040361755555</v>
+      </c>
+      <c r="R17">
+        <v>0.737643632558</v>
+      </c>
+      <c r="S17">
+        <v>0.001905329086889765</v>
+      </c>
+      <c r="T17">
+        <v>0.001905329086889765</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.06615233333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.198457</v>
+      </c>
+      <c r="I18">
+        <v>0.01596541070364794</v>
+      </c>
+      <c r="J18">
+        <v>0.01596541070364794</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.427111</v>
+      </c>
+      <c r="N18">
+        <v>13.281333</v>
+      </c>
+      <c r="O18">
+        <v>0.4264335760389447</v>
+      </c>
+      <c r="P18">
+        <v>0.4264335760389446</v>
+      </c>
+      <c r="Q18">
+        <v>0.2928637225756666</v>
+      </c>
+      <c r="R18">
+        <v>2.635773503181</v>
+      </c>
+      <c r="S18">
+        <v>0.006808187179287035</v>
+      </c>
+      <c r="T18">
+        <v>0.006808187179287034</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.06615233333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.198457</v>
+      </c>
+      <c r="I19">
+        <v>0.01596541070364794</v>
+      </c>
+      <c r="J19">
+        <v>0.01596541070364794</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.9484723333333335</v>
+      </c>
+      <c r="N19">
+        <v>2.845417</v>
+      </c>
+      <c r="O19">
+        <v>0.09135990691837981</v>
+      </c>
+      <c r="P19">
+        <v>0.09135990691837978</v>
+      </c>
+      <c r="Q19">
+        <v>0.06274365795211112</v>
+      </c>
+      <c r="R19">
+        <v>0.5646929215690001</v>
+      </c>
+      <c r="S19">
+        <v>0.001458598435798981</v>
+      </c>
+      <c r="T19">
+        <v>0.00145859843579898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.07655866666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.229676</v>
+      </c>
+      <c r="I20">
+        <v>0.01847690768665779</v>
+      </c>
+      <c r="J20">
+        <v>0.01847690768665779</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.277057</v>
+      </c>
+      <c r="N20">
+        <v>3.831171</v>
+      </c>
+      <c r="O20">
+        <v>0.1230102392543504</v>
+      </c>
+      <c r="P20">
+        <v>0.1230102392543504</v>
+      </c>
+      <c r="Q20">
+        <v>0.09776978117733334</v>
+      </c>
+      <c r="R20">
+        <v>0.879928030596</v>
+      </c>
+      <c r="S20">
+        <v>0.002272848835216321</v>
+      </c>
+      <c r="T20">
+        <v>0.002272848835216321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.811148011452588</v>
-      </c>
-      <c r="H13">
-        <v>0.811148011452588</v>
-      </c>
-      <c r="I13">
-        <v>0.4384780417054801</v>
-      </c>
-      <c r="J13">
-        <v>0.4384780417054801</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.8997212305467051</v>
-      </c>
-      <c r="N13">
-        <v>0.8997212305467051</v>
-      </c>
-      <c r="O13">
-        <v>0.09498332613782486</v>
-      </c>
-      <c r="P13">
-        <v>0.09498332613782486</v>
-      </c>
-      <c r="Q13">
-        <v>0.7298070870196353</v>
-      </c>
-      <c r="R13">
-        <v>0.7298070870196353</v>
-      </c>
-      <c r="S13">
-        <v>0.04164810283958639</v>
-      </c>
-      <c r="T13">
-        <v>0.04164810283958639</v>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.07655866666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.229676</v>
+      </c>
+      <c r="I21">
+        <v>0.01847690768665779</v>
+      </c>
+      <c r="J21">
+        <v>0.01847690768665779</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.507958</v>
+      </c>
+      <c r="N21">
+        <v>4.523874</v>
+      </c>
+      <c r="O21">
+        <v>0.1452513665134068</v>
+      </c>
+      <c r="P21">
+        <v>0.1452513665134068</v>
+      </c>
+      <c r="Q21">
+        <v>0.1154472538693333</v>
+      </c>
+      <c r="R21">
+        <v>1.039025284824</v>
+      </c>
+      <c r="S21">
+        <v>0.002683796090429114</v>
+      </c>
+      <c r="T21">
+        <v>0.002683796090429113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.07655866666666666</v>
+      </c>
+      <c r="H22">
+        <v>0.229676</v>
+      </c>
+      <c r="I22">
+        <v>0.01847690768665779</v>
+      </c>
+      <c r="J22">
+        <v>0.01847690768665779</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.9821500000000002</v>
+      </c>
+      <c r="N22">
+        <v>2.94645</v>
+      </c>
+      <c r="O22">
+        <v>0.0946038481318064</v>
+      </c>
+      <c r="P22">
+        <v>0.09460384813180638</v>
+      </c>
+      <c r="Q22">
+        <v>0.07519209446666668</v>
+      </c>
+      <c r="R22">
+        <v>0.6767288502000001</v>
+      </c>
+      <c r="S22">
+        <v>0.00174798656873398</v>
+      </c>
+      <c r="T22">
+        <v>0.001747986568733979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.07655866666666666</v>
+      </c>
+      <c r="H23">
+        <v>0.229676</v>
+      </c>
+      <c r="I23">
+        <v>0.01847690768665779</v>
+      </c>
+      <c r="J23">
+        <v>0.01847690768665779</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.238964666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.716894</v>
+      </c>
+      <c r="O23">
+        <v>0.119341063143112</v>
+      </c>
+      <c r="P23">
+        <v>0.119341063143112</v>
+      </c>
+      <c r="Q23">
+        <v>0.09485348292711111</v>
+      </c>
+      <c r="R23">
+        <v>0.8536813463440001</v>
+      </c>
+      <c r="S23">
+        <v>0.002205053806922879</v>
+      </c>
+      <c r="T23">
+        <v>0.002205053806922878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.07655866666666666</v>
+      </c>
+      <c r="H24">
+        <v>0.229676</v>
+      </c>
+      <c r="I24">
+        <v>0.01847690768665779</v>
+      </c>
+      <c r="J24">
+        <v>0.01847690768665779</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.427111</v>
+      </c>
+      <c r="N24">
+        <v>13.281333</v>
+      </c>
+      <c r="O24">
+        <v>0.4264335760389447</v>
+      </c>
+      <c r="P24">
+        <v>0.4264335760389446</v>
+      </c>
+      <c r="Q24">
+        <v>0.3389337153453333</v>
+      </c>
+      <c r="R24">
+        <v>3.050403438108</v>
+      </c>
+      <c r="S24">
+        <v>0.007879173818962944</v>
+      </c>
+      <c r="T24">
+        <v>0.007879173818962944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.07655866666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.229676</v>
+      </c>
+      <c r="I25">
+        <v>0.01847690768665779</v>
+      </c>
+      <c r="J25">
+        <v>0.01847690768665779</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.9484723333333335</v>
+      </c>
+      <c r="N25">
+        <v>2.845417</v>
+      </c>
+      <c r="O25">
+        <v>0.09135990691837981</v>
+      </c>
+      <c r="P25">
+        <v>0.09135990691837978</v>
+      </c>
+      <c r="Q25">
+        <v>0.07261377721022223</v>
+      </c>
+      <c r="R25">
+        <v>0.6535239948920001</v>
+      </c>
+      <c r="S25">
+        <v>0.001688048566392552</v>
+      </c>
+      <c r="T25">
+        <v>0.001688048566392551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.2603533333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.78106</v>
+      </c>
+      <c r="I26">
+        <v>0.06283448648418176</v>
+      </c>
+      <c r="J26">
+        <v>0.06283448648418177</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.277057</v>
+      </c>
+      <c r="N26">
+        <v>3.831171</v>
+      </c>
+      <c r="O26">
+        <v>0.1230102392543504</v>
+      </c>
+      <c r="P26">
+        <v>0.1230102392543504</v>
+      </c>
+      <c r="Q26">
+        <v>0.3324860468066667</v>
+      </c>
+      <c r="R26">
+        <v>2.99237442126</v>
+      </c>
+      <c r="S26">
+        <v>0.007729285215843447</v>
+      </c>
+      <c r="T26">
+        <v>0.007729285215843447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.2603533333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.78106</v>
+      </c>
+      <c r="I27">
+        <v>0.06283448648418176</v>
+      </c>
+      <c r="J27">
+        <v>0.06283448648418177</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.507958</v>
+      </c>
+      <c r="N27">
+        <v>4.523874</v>
+      </c>
+      <c r="O27">
+        <v>0.1452513665134068</v>
+      </c>
+      <c r="P27">
+        <v>0.1452513665134068</v>
+      </c>
+      <c r="Q27">
+        <v>0.3926018918266667</v>
+      </c>
+      <c r="R27">
+        <v>3.53341702644</v>
+      </c>
+      <c r="S27">
+        <v>0.009126795025995591</v>
+      </c>
+      <c r="T27">
+        <v>0.009126795025995591</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.2603533333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.78106</v>
+      </c>
+      <c r="I28">
+        <v>0.06283448648418176</v>
+      </c>
+      <c r="J28">
+        <v>0.06283448648418177</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.9821500000000002</v>
+      </c>
+      <c r="N28">
+        <v>2.94645</v>
+      </c>
+      <c r="O28">
+        <v>0.0946038481318064</v>
+      </c>
+      <c r="P28">
+        <v>0.09460384813180638</v>
+      </c>
+      <c r="Q28">
+        <v>0.2557060263333334</v>
+      </c>
+      <c r="R28">
+        <v>2.301354237</v>
+      </c>
+      <c r="S28">
+        <v>0.005944384216789573</v>
+      </c>
+      <c r="T28">
+        <v>0.005944384216789573</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.2603533333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.78106</v>
+      </c>
+      <c r="I29">
+        <v>0.06283448648418176</v>
+      </c>
+      <c r="J29">
+        <v>0.06283448648418177</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.238964666666667</v>
+      </c>
+      <c r="N29">
+        <v>3.716894</v>
+      </c>
+      <c r="O29">
+        <v>0.119341063143112</v>
+      </c>
+      <c r="P29">
+        <v>0.119341063143112</v>
+      </c>
+      <c r="Q29">
+        <v>0.3225685808488889</v>
+      </c>
+      <c r="R29">
+        <v>2.90311722764</v>
+      </c>
+      <c r="S29">
+        <v>0.007498734419073753</v>
+      </c>
+      <c r="T29">
+        <v>0.007498734419073754</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.2603533333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.78106</v>
+      </c>
+      <c r="I30">
+        <v>0.06283448648418176</v>
+      </c>
+      <c r="J30">
+        <v>0.06283448648418177</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>4.427111</v>
+      </c>
+      <c r="N30">
+        <v>13.281333</v>
+      </c>
+      <c r="O30">
+        <v>0.4264335760389447</v>
+      </c>
+      <c r="P30">
+        <v>0.4264335760389446</v>
+      </c>
+      <c r="Q30">
+        <v>1.152613105886667</v>
+      </c>
+      <c r="R30">
+        <v>10.37351795298</v>
+      </c>
+      <c r="S30">
+        <v>0.02679473477002036</v>
+      </c>
+      <c r="T30">
+        <v>0.02679473477002036</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.2603533333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.78106</v>
+      </c>
+      <c r="I31">
+        <v>0.06283448648418176</v>
+      </c>
+      <c r="J31">
+        <v>0.06283448648418177</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.9484723333333335</v>
+      </c>
+      <c r="N31">
+        <v>2.845417</v>
+      </c>
+      <c r="O31">
+        <v>0.09135990691837981</v>
+      </c>
+      <c r="P31">
+        <v>0.09135990691837978</v>
+      </c>
+      <c r="Q31">
+        <v>0.2469379335577778</v>
+      </c>
+      <c r="R31">
+        <v>2.22244140202</v>
+      </c>
+      <c r="S31">
+        <v>0.00574055283645904</v>
+      </c>
+      <c r="T31">
+        <v>0.00574055283645904</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.9345180000000001</v>
+      </c>
+      <c r="H32">
+        <v>2.803554</v>
+      </c>
+      <c r="I32">
+        <v>0.2255394923830099</v>
+      </c>
+      <c r="J32">
+        <v>0.2255394923830099</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.277057</v>
+      </c>
+      <c r="N32">
+        <v>3.831171</v>
+      </c>
+      <c r="O32">
+        <v>0.1230102392543504</v>
+      </c>
+      <c r="P32">
+        <v>0.1230102392543504</v>
+      </c>
+      <c r="Q32">
+        <v>1.193432753526</v>
+      </c>
+      <c r="R32">
+        <v>10.740894781734</v>
+      </c>
+      <c r="S32">
+        <v>0.0277436669193388</v>
+      </c>
+      <c r="T32">
+        <v>0.02774366691933879</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.9345180000000001</v>
+      </c>
+      <c r="H33">
+        <v>2.803554</v>
+      </c>
+      <c r="I33">
+        <v>0.2255394923830099</v>
+      </c>
+      <c r="J33">
+        <v>0.2255394923830099</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1.507958</v>
+      </c>
+      <c r="N33">
+        <v>4.523874</v>
+      </c>
+      <c r="O33">
+        <v>0.1452513665134068</v>
+      </c>
+      <c r="P33">
+        <v>0.1452513665134068</v>
+      </c>
+      <c r="Q33">
+        <v>1.409213894244</v>
+      </c>
+      <c r="R33">
+        <v>12.682925048196</v>
+      </c>
+      <c r="S33">
+        <v>0.0327599194713723</v>
+      </c>
+      <c r="T33">
+        <v>0.03275991947137229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.9345180000000001</v>
+      </c>
+      <c r="H34">
+        <v>2.803554</v>
+      </c>
+      <c r="I34">
+        <v>0.2255394923830099</v>
+      </c>
+      <c r="J34">
+        <v>0.2255394923830099</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.9821500000000002</v>
+      </c>
+      <c r="N34">
+        <v>2.94645</v>
+      </c>
+      <c r="O34">
+        <v>0.0946038481318064</v>
+      </c>
+      <c r="P34">
+        <v>0.09460384813180638</v>
+      </c>
+      <c r="Q34">
+        <v>0.9178368537000002</v>
+      </c>
+      <c r="R34">
+        <v>8.260531683300002</v>
+      </c>
+      <c r="S34">
+        <v>0.02133690388512698</v>
+      </c>
+      <c r="T34">
+        <v>0.02133690388512697</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.9345180000000001</v>
+      </c>
+      <c r="H35">
+        <v>2.803554</v>
+      </c>
+      <c r="I35">
+        <v>0.2255394923830099</v>
+      </c>
+      <c r="J35">
+        <v>0.2255394923830099</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.238964666666667</v>
+      </c>
+      <c r="N35">
+        <v>3.716894</v>
+      </c>
+      <c r="O35">
+        <v>0.119341063143112</v>
+      </c>
+      <c r="P35">
+        <v>0.119341063143112</v>
+      </c>
+      <c r="Q35">
+        <v>1.157834782364</v>
+      </c>
+      <c r="R35">
+        <v>10.420513041276</v>
+      </c>
+      <c r="S35">
+        <v>0.02691612280174622</v>
+      </c>
+      <c r="T35">
+        <v>0.02691612280174622</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.9345180000000001</v>
+      </c>
+      <c r="H36">
+        <v>2.803554</v>
+      </c>
+      <c r="I36">
+        <v>0.2255394923830099</v>
+      </c>
+      <c r="J36">
+        <v>0.2255394923830099</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4.427111</v>
+      </c>
+      <c r="N36">
+        <v>13.281333</v>
+      </c>
+      <c r="O36">
+        <v>0.4264335760389447</v>
+      </c>
+      <c r="P36">
+        <v>0.4264335760389446</v>
+      </c>
+      <c r="Q36">
+        <v>4.137214917498</v>
+      </c>
+      <c r="R36">
+        <v>37.234934257482</v>
+      </c>
+      <c r="S36">
+        <v>0.09617761227489525</v>
+      </c>
+      <c r="T36">
+        <v>0.09617761227489524</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.9345180000000001</v>
+      </c>
+      <c r="H37">
+        <v>2.803554</v>
+      </c>
+      <c r="I37">
+        <v>0.2255394923830099</v>
+      </c>
+      <c r="J37">
+        <v>0.2255394923830099</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.9484723333333335</v>
+      </c>
+      <c r="N37">
+        <v>2.845417</v>
+      </c>
+      <c r="O37">
+        <v>0.09135990691837981</v>
+      </c>
+      <c r="P37">
+        <v>0.09135990691837978</v>
+      </c>
+      <c r="Q37">
+        <v>0.8863644680020002</v>
+      </c>
+      <c r="R37">
+        <v>7.977280212018001</v>
+      </c>
+      <c r="S37">
+        <v>0.02060526703053042</v>
+      </c>
+      <c r="T37">
+        <v>0.02060526703053041</v>
       </c>
     </row>
   </sheetData>
